--- a/Strompreis.xlsx
+++ b/Strompreis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A300F90-2DDE-4997-93FC-018285260AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21615328-41D3-43E5-9F8B-7B484D2C0D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D08B349E-513C-470E-B495-5F735ADF66B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08B349E-513C-470E-B495-5F735ADF66B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Steuer und Netzentgeld MWh" sheetId="3" r:id="rId1"/>
     <sheet name="Cent pro kwh" sheetId="1" r:id="rId2"/>
     <sheet name="Euro pro MWh" sheetId="2" r:id="rId3"/>
     <sheet name="Empirical" sheetId="4" r:id="rId4"/>
+    <sheet name="Pure empirical" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Beschaffung und Vertrieb</t>
   </si>
@@ -69,6 +70,9 @@
   </si>
   <si>
     <t>Empirical electricity price</t>
+  </si>
+  <si>
+    <t>Pure electricity  prices</t>
   </si>
 </sst>
 </file>
@@ -424,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AC350-1135-4C7D-BCF9-B9B3738074BA}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,8 +524,147 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>'Euro pro MWh'!C16+'Euro pro MWh'!D16</f>
-        <v>202.75714285714287</v>
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>241.9</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +677,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CD47FA-6D99-4B8C-94EE-BC6050CC06FE}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,4 +1825,92 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE22DCB-9B2B-4F3F-BE23-9E30D89E421F}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>42.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>48.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>52.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>47.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>41.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>35.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>48.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>99.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>